--- a/Simple Dashboard.xlsx
+++ b/Simple Dashboard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6950" tabRatio="564" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="6950" tabRatio="564"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="14" r:id="rId1"/>
@@ -5416,10 +5416,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>290830</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104140</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>156845</xdr:rowOff>
+      <xdr:rowOff>155575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
@@ -5433,8 +5433,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="582930" y="1998345"/>
-        <a:ext cx="3272790" cy="3496310"/>
+        <a:off x="1005840" y="1997075"/>
+        <a:ext cx="2849880" cy="3497580"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5446,10 +5446,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>109220</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>147320</xdr:rowOff>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
@@ -5485,8 +5485,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="596900" y="331470"/>
-              <a:ext cx="3258185" cy="1494155"/>
+              <a:off x="1010920" y="330200"/>
+              <a:ext cx="2844165" cy="1495425"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -23112,8 +23112,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="65" zoomScaleNormal="65" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -23485,7 +23485,7 @@
   <sheetPr/>
   <dimension ref="B2:I1562"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B2" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="B2" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
